--- a/project/test/cases_test.xlsx
+++ b/project/test/cases_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCEE723-4D0C-F347-A891-CC5862212CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EFEFC-043D-B040-BFDE-15290E250721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{0A9D0FCF-1F4B-5247-B35D-CBB46409C9D9}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{0A9D0FCF-1F4B-5247-B35D-CBB46409C9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Sediment subduction</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>Sample sediment grid</t>
+  </si>
+  <si>
+    <t>syn</t>
+  </si>
+  <si>
+    <t>Reconstructed motions</t>
+  </si>
+  <si>
+    <t>sediment thickness</t>
   </si>
 </sst>
 </file>
@@ -413,22 +431,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D861B8B-A8AA-1B4E-A7D6-DBD232E13F33}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/project/test/cases_test.xlsx
+++ b/project/test/cases_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EFEFC-043D-B040-BFDE-15290E250721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA74A06-490D-8F43-B488-D80D224224DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{0A9D0FCF-1F4B-5247-B35D-CBB46409C9D9}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
